--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -522,6 +522,142 @@
       </c>
       <c r="E6" t="n">
         <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C14</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -408,21 +408,6 @@
           <t>NAME</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MATHS</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>PHYSICS</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>CHEMISTRY</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
           <t>SOCIAL</t>
@@ -430,20 +415,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>New Name</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>93</v>
-      </c>
       <c r="E2" t="n">
         <v>91</v>
       </c>
@@ -661,6 +632,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -438,194 +438,194 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>89</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90</v>
-      </c>
-      <c r="E4" t="n">
-        <v>93</v>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DOBBY</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MALFOY</t>
+          <t>DOBBY</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C6" t="n">
         <v>56</v>
       </c>
-      <c r="C6" t="n">
-        <v>46</v>
-      </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
+          <t>MALFOY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99</v>
+      </c>
+      <c r="E7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B11</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B12</t>
+          <t>B11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>B12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>C12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>A13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>A14</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>B14</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>C14</t>
         </is>

--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -438,6 +438,7 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>

--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -431,14 +431,7 @@
       <c r="C3" t="n">
         <v>89</v>
       </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4"/>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -451,11 +444,11 @@
       <c r="C5" t="n">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
-        <v>90</v>
-      </c>
-      <c r="E5" t="n">
-        <v>93</v>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -470,12 +463,6 @@
       <c r="C6" t="n">
         <v>56</v>
       </c>
-      <c r="D6" t="n">
-        <v>78</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -489,11 +476,11 @@
       <c r="C7" t="n">
         <v>46</v>
       </c>
-      <c r="D7" t="n">
-        <v>99</v>
-      </c>
-      <c r="E7" t="n">
-        <v>78</v>
+      <c r="F7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -512,6 +499,12 @@
           <t>C7</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -528,6 +521,12 @@
         <is>
           <t>C8</t>
         </is>
+      </c>
+      <c r="F9" t="n">
+        <v>99</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="10">

--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NEWSHEET" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -391,6 +392,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="001d4be5"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -709,4 +711,22 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/MarksList.xlsx
+++ b/MarksList.xlsx
@@ -1,38 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Openpyxl-Module\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="NEWSHEET" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="NEWSHEET" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SOCIAL</t>
+  </si>
+  <si>
+    <t>POTTER</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>DOBBY</t>
+  </si>
+  <si>
+    <t>MALFOY</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,81 +149,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,247 +431,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="001d4be5"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <tabColor rgb="FF1D4BE5"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SOCIAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="E2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2">
         <v>91</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>POTTER</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>76</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>89</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>67</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DOBBY</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>76</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>56</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MALFOY</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>56</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>46</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>90</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>93</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
         <v>78</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>69</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C8</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
         <v>99</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>78</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C9</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B10</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B11</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C11</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B12</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C12</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B13</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C13</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B14</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C14</t>
-        </is>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -642,90 +628,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
